--- a/VerveStacks_BRA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_BRA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{392B02F0-FFC5-4A46-8494-84C30B338F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC5F9AFA-FDB7-4359-93F4-D9E734144525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8793,7 +8793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8671CE-652C-4B73-AAEA-48C88D471788}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD82F49-BDE0-4CF6-A0D7-5F2A33C58C0E}">
   <dimension ref="B9:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10904,7 +10904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFEA529-D704-4703-92AD-2C3FE3E52EB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1EE74-45A3-4CA6-A3AE-89C644C8913E}">
   <dimension ref="B9:AB263"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28431,7 +28431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D6B4BF-B4B6-4FF1-A8A1-3B9290B5098F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20B6D5D-213D-4545-AFFF-5B9DA07E457F}">
   <dimension ref="B9:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BRA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_BRA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC5F9AFA-FDB7-4359-93F4-D9E734144525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE38951-12A0-4A14-93B5-FDDC268D74DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8793,7 +8793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD82F49-BDE0-4CF6-A0D7-5F2A33C58C0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E67A9F-3A90-4A5E-82BA-C56C3C7281BE}">
   <dimension ref="B9:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10904,7 +10904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1EE74-45A3-4CA6-A3AE-89C644C8913E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0663379F-90C3-4531-92EF-F3541D6CBD0F}">
   <dimension ref="B9:AB263"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28431,7 +28431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20B6D5D-213D-4545-AFFF-5B9DA07E457F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDC3916-3C1F-416D-943D-F19CC94BCA93}">
   <dimension ref="B9:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BRA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_BRA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE38951-12A0-4A14-93B5-FDDC268D74DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE244694-B8DB-49AB-A41C-0FD61333E79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8793,7 +8793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E67A9F-3A90-4A5E-82BA-C56C3C7281BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEE27C2-CDBE-4DEA-9DD0-F392357DA498}">
   <dimension ref="B9:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10904,7 +10904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0663379F-90C3-4531-92EF-F3541D6CBD0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202FC6D7-E5FB-4BE8-874A-4511C353C999}">
   <dimension ref="B9:AB263"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28431,7 +28431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDC3916-3C1F-416D-943D-F19CC94BCA93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4789998F-65B5-4DFE-BBFB-7748A2B482CD}">
   <dimension ref="B9:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BRA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_BRA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE244694-B8DB-49AB-A41C-0FD61333E79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58DF678D-BEA7-47E0-97B4-73A3379B03D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8793,7 +8793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEE27C2-CDBE-4DEA-9DD0-F392357DA498}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F652E0-9A9F-4EC0-8E30-B33D4EFFD488}">
   <dimension ref="B9:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10904,7 +10904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202FC6D7-E5FB-4BE8-874A-4511C353C999}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8573628F-7249-4CD8-AE15-B1E681F034EB}">
   <dimension ref="B9:AB263"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28431,7 +28431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4789998F-65B5-4DFE-BBFB-7748A2B482CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60A11DD-7DBD-4A61-BBBD-976BC3FD4A9C}">
   <dimension ref="B9:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
